--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="H2">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="I2">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="J2">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N2">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O2">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P2">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q2">
-        <v>1.549650692600111</v>
+        <v>0.2911825495111112</v>
       </c>
       <c r="R2">
-        <v>13.946856233401</v>
+        <v>2.6206429456</v>
       </c>
       <c r="S2">
-        <v>0.008645700360726457</v>
+        <v>0.0006692664338665771</v>
       </c>
       <c r="T2">
-        <v>0.008645700360726458</v>
+        <v>0.0006692664338665771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="H3">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="I3">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="J3">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N3">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O3">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P3">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q3">
-        <v>5.104672453072111</v>
+        <v>3.378213658853334</v>
       </c>
       <c r="R3">
-        <v>45.942052077649</v>
+        <v>30.40392292968</v>
       </c>
       <c r="S3">
-        <v>0.02847962362076951</v>
+        <v>0.007764630854754769</v>
       </c>
       <c r="T3">
-        <v>0.02847962362076952</v>
+        <v>0.007764630854754769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="H4">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="I4">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="J4">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N4">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O4">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P4">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q4">
-        <v>2.357397955609667</v>
+        <v>0.6378887928266667</v>
       </c>
       <c r="R4">
-        <v>21.216581600487</v>
+        <v>5.74099913544</v>
       </c>
       <c r="S4">
-        <v>0.01315222614523087</v>
+        <v>0.001466150901883866</v>
       </c>
       <c r="T4">
-        <v>0.01315222614523087</v>
+        <v>0.001466150901883866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="H5">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="I5">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="J5">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N5">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O5">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P5">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q5">
-        <v>7.65436897589</v>
+        <v>6.948241690724445</v>
       </c>
       <c r="R5">
-        <v>68.88932078301001</v>
+        <v>62.53417521652</v>
       </c>
       <c r="S5">
-        <v>0.04270470818488042</v>
+        <v>0.01597013607375115</v>
       </c>
       <c r="T5">
-        <v>0.04270470818488043</v>
+        <v>0.01597013607375115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="H6">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="I6">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="J6">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N6">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O6">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P6">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q6">
-        <v>5.104672453072111</v>
+        <v>3.378213658853334</v>
       </c>
       <c r="R6">
-        <v>45.942052077649</v>
+        <v>30.40392292968</v>
       </c>
       <c r="S6">
-        <v>0.02847962362076951</v>
+        <v>0.007764630854754769</v>
       </c>
       <c r="T6">
-        <v>0.02847962362076952</v>
+        <v>0.007764630854754769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="H7">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="I7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="J7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N7">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q7">
-        <v>16.81519646820011</v>
+        <v>39.193033868356</v>
       </c>
       <c r="R7">
-        <v>151.336768213801</v>
+        <v>352.737304815204</v>
       </c>
       <c r="S7">
-        <v>0.09381414202892187</v>
+        <v>0.09008294643180763</v>
       </c>
       <c r="T7">
-        <v>0.09381414202892187</v>
+        <v>0.09008294643180763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="H8">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="I8">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="J8">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N8">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O8">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P8">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q8">
-        <v>7.765456087873667</v>
+        <v>7.400596760947999</v>
       </c>
       <c r="R8">
-        <v>69.889104790863</v>
+        <v>66.605370848532</v>
       </c>
       <c r="S8">
-        <v>0.04332447745852091</v>
+        <v>0.0170098483271066</v>
       </c>
       <c r="T8">
-        <v>0.04332447745852091</v>
+        <v>0.0170098483271066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="H9">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="I9">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="J9">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N9">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O9">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P9">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q9">
-        <v>25.21409930861</v>
+        <v>80.61144125576733</v>
       </c>
       <c r="R9">
-        <v>226.92689377749</v>
+        <v>725.502971301906</v>
       </c>
       <c r="S9">
-        <v>0.1406727003245342</v>
+        <v>0.1852807866016496</v>
       </c>
       <c r="T9">
-        <v>0.1406727003245342</v>
+        <v>0.1852807866016496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="H10">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="I10">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="J10">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N10">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O10">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P10">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q10">
-        <v>2.357397955609667</v>
+        <v>0.6378887928266667</v>
       </c>
       <c r="R10">
-        <v>21.216581600487</v>
+        <v>5.74099913544</v>
       </c>
       <c r="S10">
-        <v>0.01315222614523087</v>
+        <v>0.001466150901883866</v>
       </c>
       <c r="T10">
-        <v>0.01315222614523087</v>
+        <v>0.001466150901883866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="H11">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="I11">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="J11">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N11">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O11">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P11">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q11">
-        <v>7.765456087873667</v>
+        <v>7.400596760947999</v>
       </c>
       <c r="R11">
-        <v>69.889104790863</v>
+        <v>66.605370848532</v>
       </c>
       <c r="S11">
-        <v>0.04332447745852091</v>
+        <v>0.0170098483271066</v>
       </c>
       <c r="T11">
-        <v>0.04332447745852091</v>
+        <v>0.0170098483271066</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="H12">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="I12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="J12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N12">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q12">
-        <v>3.586179225841</v>
+        <v>1.397412422884</v>
       </c>
       <c r="R12">
-        <v>32.275613032569</v>
+        <v>12.576711805956</v>
       </c>
       <c r="S12">
-        <v>0.0200077547634047</v>
+        <v>0.003211872519402953</v>
       </c>
       <c r="T12">
-        <v>0.0200077547634047</v>
+        <v>0.003211872519402953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,46 +1216,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="H13">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="I13">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="J13">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N13">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O13">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P13">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q13">
-        <v>11.64416849643</v>
+        <v>15.22139809478866</v>
       </c>
       <c r="R13">
-        <v>104.79751646787</v>
+        <v>136.992582853098</v>
       </c>
       <c r="S13">
-        <v>0.0649643124419414</v>
+        <v>0.034985512828522</v>
       </c>
       <c r="T13">
-        <v>0.06496431244194141</v>
+        <v>0.034985512828522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,22 +1272,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="H14">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="I14">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="J14">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N14">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O14">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P14">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q14">
-        <v>7.65436897589</v>
+        <v>6.948241690724445</v>
       </c>
       <c r="R14">
-        <v>68.88932078301001</v>
+        <v>62.53417521652</v>
       </c>
       <c r="S14">
-        <v>0.04270470818488042</v>
+        <v>0.01597013607375115</v>
       </c>
       <c r="T14">
-        <v>0.04270470818488043</v>
+        <v>0.01597013607375115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="H15">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="I15">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="J15">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,28 +1358,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N15">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O15">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P15">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q15">
-        <v>25.21409930861</v>
+        <v>80.61144125576733</v>
       </c>
       <c r="R15">
-        <v>226.92689377749</v>
+        <v>725.502971301906</v>
       </c>
       <c r="S15">
-        <v>0.1406727003245342</v>
+        <v>0.1852807866016496</v>
       </c>
       <c r="T15">
-        <v>0.1406727003245342</v>
+        <v>0.1852807866016496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="H16">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="I16">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="J16">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N16">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O16">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P16">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q16">
-        <v>11.64416849643</v>
+        <v>15.22139809478866</v>
       </c>
       <c r="R16">
-        <v>104.79751646787</v>
+        <v>136.992582853098</v>
       </c>
       <c r="S16">
-        <v>0.0649643124419414</v>
+        <v>0.034985512828522</v>
       </c>
       <c r="T16">
-        <v>0.06496431244194141</v>
+        <v>0.034985512828522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="H17">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="I17">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="J17">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N17">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O17">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P17">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q17">
-        <v>37.8081103689</v>
+        <v>165.7999858637787</v>
       </c>
       <c r="R17">
-        <v>340.2729933201</v>
+        <v>1492.199872774009</v>
       </c>
       <c r="S17">
-        <v>0.2109363064951925</v>
+        <v>0.3810817834395871</v>
       </c>
       <c r="T17">
-        <v>0.2109363064951926</v>
+        <v>0.3810817834395871</v>
       </c>
     </row>
   </sheetData>
